--- a/tacc_tests/tacc_timing_calculations.xlsx
+++ b/tacc_tests/tacc_timing_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghajoshi/Box Sync/Dissertation_Joshi/simulation/tacc_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817B711A-03B6-7E4A-BC66-4F6007462013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003932CC-7FE1-6E42-BD77-439274690940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,27 +561,27 @@
         <v>764.07407407407413</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>18.28</v>
       </c>
       <c r="K5">
-        <f>J5 *A5</f>
-        <v>72</v>
+        <f>J5 *A5 * 0.8</f>
+        <v>58.496000000000009</v>
       </c>
       <c r="L5">
-        <f>ROUND(20/3, 0)</f>
+        <f>ROUND((1000/50)/3, 0)</f>
         <v>7</v>
       </c>
       <c r="M5">
         <f>L5 *K5</f>
-        <v>504</v>
+        <v>409.47200000000009</v>
       </c>
       <c r="N5">
-        <f xml:space="preserve"> ROUND(80/3, 0)</f>
+        <f>ROUND((4000/50)/3, 0)</f>
         <v>27</v>
       </c>
       <c r="O5">
         <f>N5*K5</f>
-        <v>1944</v>
+        <v>1579.3920000000003</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">

--- a/tacc_tests/tacc_timing_calculations.xlsx
+++ b/tacc_tests/tacc_timing_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghajoshi/Box Sync/Dissertation_Joshi/simulation/tacc_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003932CC-7FE1-6E42-BD77-439274690940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9495DA2C-47CC-A347-9BF1-8A87607641F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -564,7 +564,7 @@
         <v>18.28</v>
       </c>
       <c r="K5">
-        <f>J5 *A5 * 0.8</f>
+        <f>J5*A5*0.8</f>
         <v>58.496000000000009</v>
       </c>
       <c r="L5">
